--- a/IPC2024_base2010/imputacion/indprod_2_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_2_2024.xlsx
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>102.2976674942843</v>
+        <v>90.7536635387189</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>115.1176009148734</v>
+        <v>117.2368040676977</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>110.8793417852435</v>
+        <v>106.0255483281288</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>196.7148742531493</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4478,7 +4478,7 @@
         <v>241</v>
       </c>
       <c r="D231">
-        <v>99.99999999999999</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>136.5609984952464</v>
+        <v>127.4587720890643</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>127.7526861441812</v>
+        <v>127.8076424317508</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>230.3170376843066</v>
+        <v>194.1453514347148</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9442672210322</v>
+        <v>113.8078327513671</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.4124035006222</v>
+        <v>112.8978245469633</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>124.9681967850001</v>
+        <v>122.736142975686</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>92.32778970841476</v>
+        <v>81.90885841008279</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>115.05362116612</v>
+        <v>117.1716465139501</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>108.3908122353773</v>
+        <v>103.6459552875573</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>165.3919881843137</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>137.6262805464508</v>
+        <v>127.2846892504531</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>135.5635667742353</v>
+        <v>135.6378931358876</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>296.4590418538444</v>
+        <v>249.8996402758753</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.1610202490992</v>
+        <v>112.6519183760175</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>127.1091477672755</v>
+        <v>124.8388544864919</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>104.9626704949506</v>
+        <v>93.11792844891993</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>91.27054476549671</v>
+        <v>92.9507467909894</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>108.2606240505716</v>
+        <v>103.5214661495661</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>107.2263261176471</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12290,7 +12290,7 @@
         <v>241</v>
       </c>
       <c r="D789">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>131.5078922004701</v>
+        <v>126.6657347503884</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.8064816185741</v>
+        <v>117.8439877503723</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>151.7531552876723</v>
+        <v>127.92006167184</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6021499896183</v>
+        <v>102.456775</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.1683352365574</v>
+        <v>118.5283473635546</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>106.3704287203103</v>
+        <v>104.4705491771013</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>111.1654817954134</v>
+        <v>98.62076994613983</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>131.5514636120772</v>
+        <v>125.7927386496682</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>82.26275681267526</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16196,7 +16196,7 @@
         <v>241</v>
       </c>
       <c r="D1068">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>123.7185864239981</v>
+        <v>116.9555760636105</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>122.2170512667978</v>
+        <v>122.2624162904218</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>195.341823534796</v>
+        <v>164.6630547239151</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>118.6074515366955</v>
+        <v>116.0232596098746</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>127.8812885126514</v>
+        <v>125.597204045499</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>99.15666445905337</v>
+        <v>100.982042283775</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>100.7843137254902</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20102,7 +20102,7 @@
         <v>241</v>
       </c>
       <c r="D1347">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>135.4176681039065</v>
+        <v>128.1764139502158</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.9786163666768</v>
+        <v>116.0153151882379</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>109.4227141519431</v>
+        <v>92.23768900279174</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>107.7840955543095</v>
+        <v>105.4357204230475</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>127.0240118317286</v>
+        <v>124.7552391617416</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>110.2677179797907</v>
+        <v>97.82431625119315</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>134.5161981144792</v>
+        <v>136.9925105887197</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>87.28173529411765</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24008,7 +24008,7 @@
         <v>241</v>
       </c>
       <c r="D1626">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>155.6230982090338</v>
+        <v>141.1287025169012</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>134.0417091017935</v>
+        <v>134.1008019084432</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>151.9155442798669</v>
+        <v>128.0569471939695</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>102.7380729986172</v>
+        <v>100.4996394484451</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>122.8555697675805</v>
+        <v>120.6612495361142</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>105.6892054583693</v>
+        <v>93.76247598587037</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>105.4377518112289</v>
+        <v>107.3787583496668</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>131.683900370077</v>
+        <v>125.9193779285424</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>323.0134887625206</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27914,7 +27914,7 @@
         <v>241</v>
       </c>
       <c r="D1905">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1906" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>138.6286191679552</v>
+        <v>131.692221108362</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>116.3680785797134</v>
+        <v>116.406856098895</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>209.8405507918084</v>
+        <v>176.8847319692045</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1386927410049</v>
+        <v>114.9787736971628</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>129.4400670542597</v>
+        <v>126.6198565872531</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>108.2764219854843</v>
+        <v>106.3424995446621</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>98.26064768836893</v>
+        <v>87.17221005948231</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>124.6544322197596</v>
+        <v>126.9491991682906</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>100.2438937108675</v>
+        <v>95.85567181510704</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>188.9705882352941</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31820,7 +31820,7 @@
         <v>241</v>
       </c>
       <c r="D2184">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>114.2093176793413</v>
+        <v>112.291076224328</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.962114897284</v>
+        <v>126.9876486703845</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>89.53425616950024</v>
+        <v>75.47274749729829</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>113.8921303724373</v>
+        <v>111.4106747807048</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>122.7835215165898</v>
+        <v>120.5904881371165</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>109.3216081674698</v>
+        <v>96.98497226925095</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>110.9018537569401</v>
+        <v>112.9434491017698</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>117.5067745351906</v>
+        <v>112.3628622047021</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>100.9344326152279</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35726,7 +35726,7 @@
         <v>241</v>
       </c>
       <c r="D2463">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>115.5431753546508</v>
+        <v>113.122075084334</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.8275487778925</v>
+        <v>120.8674650481166</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>82.48081104298203</v>
+        <v>69.52705803948939</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6166572580548</v>
+        <v>112.460662</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>102.9945946821954</v>
+        <v>100.750572096468</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>99.01662206693359</v>
+        <v>97.24808867879372</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
